--- a/medicine/Handicap/Music_(film,_2021)/Music_(film,_2021).xlsx
+++ b/medicine/Handicap/Music_(film,_2021)/Music_(film,_2021).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Music est un film américain co-écrit, co-produit et réalisé par Sia, sorti en 2021.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kazu Gamble, surnommée « Zu », vient de sortir de cure de désintoxication. Elle apprend qu'elle est la nouvelle tutrice de sa jeune demi-sœur autiste, Music. Cette dernière vit dans son monde, fait d'imaginaire et de musique. Zu va tenter de faire face à ces nouvelles responsabilités. Elle pourra compter sur l'aide de son voisin Ebo.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Music
@@ -562,7 +578,7 @@
 Format : couleur
 Genre : drame musical
 Durée : 107 minutes
-Dates de sortie[1] :
+Dates de sortie :
 Australie : 14 janvier 2021 (avant-première mondiale)
 États-Unis : 10 février 2021 (sortie limitée IMAX) ; 12 février 2021 (vidéo à la demande)
 France : 29 mars 2021 (vidéo à la demande)</t>
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kate Hudson (VF : Ingrid Donnadieu) : Kazu « Zu » Gamble
 Maddie Ziegler : Music
@@ -636,8 +654,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Musique
-En plus de la musique originale de Craig DeLeon, Sia écrit dix chansons pour le film présentes sur l'album Music – Songs from and Inspired by the Motion Picture, prévu pour le 12 février 2021.
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de la musique originale de Craig DeLeon, Sia écrit dix chansons pour le film présentes sur l'album Music – Songs from and Inspired by the Motion Picture, prévu pour le 12 février 2021.
 </t>
         </is>
       </c>
@@ -666,9 +689,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès la parution de la bande-annonce, le film est sujet à controverse. La première polémique concerne le choix de l'actrice pour jouer le rôle de Music, Maddie Ziegler n'étant pas elle-même autiste. La deuxième polémique concerne l'utilisation de la contention pour calmer Music lors d’une crise d’agitation aigüe, qui serait dangereuse voire mortelle pour les autistes. Une pétition signée par plus de 30 000 personnes a vu le jour pour réclamer l’annulation de la sortie du film[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès la parution de la bande-annonce, le film est sujet à controverse. La première polémique concerne le choix de l'actrice pour jouer le rôle de Music, Maddie Ziegler n'étant pas elle-même autiste. La deuxième polémique concerne l'utilisation de la contention pour calmer Music lors d’une crise d’agitation aigüe, qui serait dangereuse voire mortelle pour les autistes. Une pétition signée par plus de 30 000 personnes a vu le jour pour réclamer l’annulation de la sortie du film.
 Preuve des divergences, le film est nommé à la fois aux Razzie Awards 2021, pour le pire film, et aux Golden Globes 2021, pour le meilleur film musical ou comédie.
 </t>
         </is>
@@ -700,10 +725,49 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Récompenses
-Razzie Awards 2021 : pire actrice pour Kate Hudson, pire actrice dans un second rôle pour Maddie Ziegler et pire réalisation pour Sia
-Nominations
-Golden Globes 2021 : meilleur film musical ou comédie et meilleure actrice dans un film musical ou une comédie pour Kate Hudson
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Razzie Awards 2021 : pire actrice pour Kate Hudson, pire actrice dans un second rôle pour Maddie Ziegler et pire réalisation pour Sia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Music_(film,_2021)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Music_(film,_2021)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Golden Globes 2021 : meilleur film musical ou comédie et meilleure actrice dans un film musical ou une comédie pour Kate Hudson
 Razzie Awards 2021 : pire film</t>
         </is>
       </c>
